--- a/ParametricGraph/bench4x4.xlsx
+++ b/ParametricGraph/bench4x4.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,8 +445,8 @@
         <v>40443</v>
       </c>
       <c r="C2">
-        <f>3*5*2*10*3*5*2*10</f>
-        <v>90000</v>
+        <f>2*5*2*5*2*2*5*2*5*2</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:20">

--- a/ParametricGraph/bench4x4.xlsx
+++ b/ParametricGraph/bench4x4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Параметрическая функция</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Прибор 2,5</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -419,9 +422,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -444,9 +449,12 @@
       <c r="A2">
         <v>40443</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <f>2*5*2*5*2*2*5*2*5*2</f>
         <v>40000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20">

--- a/ParametricGraph/bench4x4.xlsx
+++ b/ParametricGraph/bench4x4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -66,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +108,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -154,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +194,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -395,14 +405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -418,7 +428,7 @@
     <col min="16" max="16" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +455,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40443</v>
       </c>
@@ -457,12 +467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -494,7 +504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -526,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -558,7 +568,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -572,7 +582,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -586,7 +596,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -607,12 +617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -620,12 +630,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
